--- a/Flower pollination algorithm/GA/Data/testdata.xlsx
+++ b/Flower pollination algorithm/GA/Data/testdata.xlsx
@@ -1,59 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lovir/Github/FPA/Flower pollination algorithm/GA/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414EC8AB-3938-1F46-9A42-BAE63A567AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="fun1" sheetId="2" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun7" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,35 +57,94 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,8 +464,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
       <selection activeCell="B3" sqref="A1:B3"/>
@@ -426,49 +477,968 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col width="9.83203125" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>36.38158866701164</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>5.178621768951416</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>48.47002848748373</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>5.313323259353638</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>53.31414250450528</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5.241909503936768</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>69.50254073041121</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5.170844078063965</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>34.42145353902495</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5.134623050689697</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>45.52465845458963</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5.285732746124268</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>68.73925952367276</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>5.186314582824707</v>
+      </c>
+      <c r="C7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>72.05329900702326</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>5.090690612792969</v>
+      </c>
+      <c r="C8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>47.01585696841288</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>5.197546482086182</v>
+      </c>
+      <c r="C9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>46.40690664671659</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>5.071976184844971</v>
+      </c>
+      <c r="C10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>73.25282004366215</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>5.141053438186646</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>42.16851962748929</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>5.109675645828247</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>55.46920875101533</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5.097390651702881</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>25.70090817898502</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5.099408626556396</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>43.72615117096559</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>5.447142839431763</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>1.78851746966183</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>5.544677734375</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1.246920479625508</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>5.367318630218506</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>1.715593515831991</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5.3353431224823</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>2.60863200971623</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5.318240165710449</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>2.185490174903418</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5.341875076293945</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>2.142679266055366</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5.409582853317261</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>1.655909526937531</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5.383052349090576</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>1.294400781587246</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>5.368465900421143</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>2.79845943723762</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5.382477045059204</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>1.208298152012834</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>5.356721878051758</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>1.686934670101847</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>5.428164720535278</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>2.20152285111215</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>5.350928068161011</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>2.437651822534143</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5.738561391830444</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>2.414849579825704</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5.40528416633606</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>1.938843683364553</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>5.412099361419678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>5071.757778301989</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>10.87815117835999</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>6745.006126054044</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>10.86093473434448</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>3322.692500121653</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>10.76995611190796</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>7698.994662015167</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>10.95169425010681</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>7464.609738711224</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>10.81187319755554</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>13064.31378887094</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>10.92064166069031</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>6885.841917724705</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>10.89396548271179</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>4799.254196849593</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>10.88190722465515</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>9690.51193706083</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>10.87561893463135</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>7075.377078135083</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10.94493556022644</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>6467.922004920788</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10.89908933639526</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>7660.583697810811</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>11.22484183311462</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>5074.51751883321</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>10.93900632858276</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>6292.944374150276</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>10.91321039199829</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>6500.855971354263</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>10.96347498893738</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>10.29803450003865</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>5.09273886680603</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>8.24792093884011</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>5.392381191253662</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>7.82453487092674</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5.089401960372925</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>9.953724715114134</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5.077205419540405</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>10.43949782473857</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5.104533910751343</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>7.566799205718084</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5.199157238006592</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>7.033196356846474</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5.125486850738525</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>9.888560057404689</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>5.112958908081055</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>8.765559595757935</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5.149438858032227</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>9.436151089210341</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>5.163317680358887</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>7.865695048126199</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>5.101196527481079</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>10.56921097039319</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>5.127774000167847</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>7.408775301644454</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5.137189626693726</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>9.046583653198766</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5.136047124862671</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>8.69186820462393</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>5.182405948638916</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>3585.466159837917</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>5.981470823287964</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1769.162135437544</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>5.746985197067261</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>3407.873354141717</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5.683635950088501</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>1373.299851724816</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5.679512739181519</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>2028.628721234155</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5.672610521316528</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>1511.507991444224</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5.718742847442627</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>1625.990269436048</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5.667404651641846</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>4862.411620130183</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>5.670086622238159</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>3182.715518355415</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5.692265510559082</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>3070.057142620198</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>5.740378618240356</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>1783.566268495408</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>5.689307451248169</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>4231.780417033759</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>5.70143461227417</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>1187.792466048356</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5.738029479980469</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>3027.941874186384</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5.721367597579956</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>2910.139718966304</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>5.725863218307495</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>84.60252743996499</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>5.979458093643188</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>51.4484830420072</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>5.267770290374756</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>56.35540916731993</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5.219411373138428</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>57.59420446707608</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5.240028619766235</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>66.27740179313913</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5.218498229980469</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>57.75157363226474</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5.423021554946899</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>56.68969001290048</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5.198447942733765</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>57.23765757717358</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>5.218624353408813</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>80.00361571595241</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>5.373262405395508</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>75.73131317847422</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>5.504868507385254</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>48.3903921795387</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>5.315370559692383</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>47.83829739275433</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>5.283108472824097</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>48.99223436428574</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>6.229385137557983</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>67.25098021847009</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>5.825584173202515</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>71.49897523731562</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>5.522319555282593</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>0.0810106988493126</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>7.392334222793579</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>0.0929085061787927</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>6.114148616790771</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>0.1696414403178069</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5.855981349945068</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>0.09253081009052139</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5.92133092880249</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>0.07901990610503187</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5.938215255737305</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>0.08561755483490986</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5.905222654342651</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>0.1153987959848016</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5.936615943908691</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0.1146370896602718</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>6.098954916000366</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>0.1043732838883651</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>6.134733915328979</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>0.1109608303012016</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>5.895175695419312</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>0.07863212172820201</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>6.241941928863525</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>0.07465700450017859</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>6.052388906478882</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>0.08123335915536223</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5.911317586898804</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>0.1499659825367814</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>6.003629684448242</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.09351355991673665</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5.917341947555542</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Flower pollination algorithm/GA/Data/testdata.xlsx
+++ b/Flower pollination algorithm/GA/Data/testdata.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5120" yWindow="1000" windowWidth="28300" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fun7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="fun1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="fun2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="fun3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="fun4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="fun5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="fun6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="fun7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="fun8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="fun9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="fun10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="fun11" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -471,7 +475,7 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
@@ -602,6 +606,284 @@
       </c>
       <c r="B15" s="0" t="n">
         <v>5.447142839431763</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>2.579780532088901</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>12.24501991271973</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>2.654223549240758</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>12.32279396057129</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2.15442297098452</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>12.29918313026428</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>2.360966111469282</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>12.34923219680786</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>2.454577761347093</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>12.31750297546387</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>2.275391549374888</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>12.29801511764526</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>2.390032397004451</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>12.25718688964844</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>2.582640759979907</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>12.28466725349426</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>2.181654991990233</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>12.330974817276</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>2.441675894122163</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>12.29322791099548</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>2.37946304468008</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>12.3014509677887</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>2.418769494359389</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>12.29446387290955</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>2.300838701618602</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>12.28544402122498</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>1.806361508884916</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>12.33360600471497</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>2.186360923659255</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>12.28203773498535</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>1.289036808486919</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>11.95120120048523</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1.362251072524741</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>11.99003005027771</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>1.178657266833961</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>11.9773850440979</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>1.21979295367506</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>11.95634412765503</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>1.220834617952864</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>11.97025084495544</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>1.288984708381103</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>12.00485801696777</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>1.241741000580928</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>11.94117093086243</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>1.225995306924903</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>11.93345093727112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>1.379287519212639</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>11.97131013870239</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>1.312682777344137</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>11.98075604438782</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>1.278962747211362</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>11.99112915992737</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>1.139991301018279</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>11.98038601875305</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>1.352094751293074</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>11.94655895233154</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>1.285222543381399</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>11.93779730796814</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.121252790457832</v>
+      </c>
+      <c r="B15" t="n">
+        <v>11.94041800498962</v>
       </c>
     </row>
   </sheetData>
@@ -621,7 +903,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="n">
@@ -760,7 +1042,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="n">
@@ -899,7 +1181,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="n">
@@ -1038,7 +1320,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="n">
@@ -1177,7 +1459,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="n">
@@ -1305,6 +1587,145 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>0.0810106988493126</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>7.392334222793579</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>0.0929085061787927</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>6.114148616790771</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>0.1696414403178069</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5.855981349945068</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>0.09253081009052139</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5.92133092880249</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>0.07901990610503187</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5.938215255737305</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>0.08561755483490986</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5.905222654342651</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>0.1153987959848016</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5.936615943908691</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>0.1146370896602718</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>6.098954916000366</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>0.1043732838883651</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>6.134733915328979</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>0.1109608303012016</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>5.895175695419312</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>0.07863212172820201</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>6.241941928863525</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>0.07465700450017859</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>6.052388906478882</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>0.08123335915536223</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>5.911317586898804</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>0.1499659825367814</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>6.003629684448242</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>0.09351355991673665</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>5.917341947555542</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1320,122 +1741,261 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="n">
-        <v>0.0810106988493126</v>
+        <v>-12506.01054338749</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>7.392334222793579</v>
+        <v>2.256155729293823</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>0.0929085061787927</v>
+        <v>-12479.07739855675</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>6.114148616790771</v>
+        <v>2.259110927581787</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>0.1696414403178069</v>
+        <v>-12504.26015068198</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>5.855981349945068</v>
+        <v>2.278268814086914</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>0.09253081009052139</v>
+        <v>-12500.39388051747</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>5.92133092880249</v>
+        <v>2.281273126602173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>0.07901990610503187</v>
+        <v>-12514.54244348468</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>5.938215255737305</v>
+        <v>2.325950860977173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>0.08561755483490986</v>
+        <v>-12532.33692758758</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5.905222654342651</v>
+        <v>2.296283006668091</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>0.1153987959848016</v>
+        <v>-12484.62121186045</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>5.936615943908691</v>
+        <v>2.309062242507935</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>0.1146370896602718</v>
+        <v>-12528.30702113925</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>6.098954916000366</v>
+        <v>2.273953199386597</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>0.1043732838883651</v>
+        <v>-12482.04103325064</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>6.134733915328979</v>
+        <v>2.301017045974731</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>0.1109608303012016</v>
+        <v>-12501.81089938163</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>5.895175695419312</v>
+        <v>2.277083873748779</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>0.07863212172820201</v>
+        <v>-12508.96989164472</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>6.241941928863525</v>
+        <v>2.27276611328125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>0.07465700450017859</v>
+        <v>-12507.22392315205</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>6.052388906478882</v>
+        <v>2.277299880981445</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>0.08123335915536223</v>
+        <v>-12513.54732375206</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>5.911317586898804</v>
+        <v>2.310131311416626</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>0.1499659825367814</v>
+        <v>-12477.138802416</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>6.003629684448242</v>
+        <v>2.313577890396118</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0.09351355991673665</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5.917341947555542</v>
+      <c r="A15" s="0" t="n">
+        <v>-12523.19402963623</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2.288238048553467</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="n">
+        <v>2.92024370080145</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>11.32481789588928</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1.478927348274169</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>11.40848994255066</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>4.562671992094408</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>11.39541292190552</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>4.077015575399514</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>11.4566068649292</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>1.95923043765066</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>11.40265893936157</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>3.471003483778134</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>11.41324520111084</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>2.217143081969311</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>11.37786507606506</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>2.326025723806822</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>11.40061092376709</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>3.138909375810783</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>11.41651821136475</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>3.343260476958221</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>11.43104600906372</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>3.498327497637206</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>11.41173410415649</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>2.491869452123865</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>11.40984773635864</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>2.618713344172079</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>11.38566398620605</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>2.270335742803525</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>11.42507028579712</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>2.253301493031245</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>11.43070816993713</v>
       </c>
     </row>
   </sheetData>
